--- a/items.xlsx
+++ b/items.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="190" yWindow="550" windowWidth="18880" windowHeight="6740"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Customers" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Customers" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -31,35 +28,206 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>pens</t>
+  </si>
+  <si>
+    <t>cello</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>covers</t>
+  </si>
+  <si>
+    <t>phone covers</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>watches</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>caps</t>
+  </si>
+  <si>
+    <t>reebok</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>earphones</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>jbl</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>chargers</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>infinity</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>food packets</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>slippers</t>
+  </si>
+  <si>
+    <t>bata</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>frames</t>
+  </si>
+  <si>
+    <t>titan</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>polycab</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
     <t>charger</t>
   </si>
   <si>
+    <t>ctype</t>
+  </si>
+  <si>
     <t>specs</t>
   </si>
   <si>
-    <t>ctype</t>
-  </si>
-  <si>
     <t>frame</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>lather</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>fan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,22 +590,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="4" max="4" width="10" outlineLevel="1" collapsed="1" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,42 +617,348 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>9000</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>